--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ncam1-Fgfr1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ncam1-Fgfr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Fgfr1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.319169508462315</v>
+        <v>0.5869213333333333</v>
       </c>
       <c r="H2">
-        <v>0.319169508462315</v>
+        <v>1.760764</v>
       </c>
       <c r="I2">
-        <v>0.01036914306430435</v>
+        <v>0.01834079054277507</v>
       </c>
       <c r="J2">
-        <v>0.01036914306430435</v>
+        <v>0.02446997850397404</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.60535367622028</v>
+        <v>6.743825</v>
       </c>
       <c r="N2">
-        <v>5.60535367622028</v>
+        <v>20.231475</v>
       </c>
       <c r="O2">
-        <v>0.05584722159123625</v>
+        <v>0.06175298453338176</v>
       </c>
       <c r="P2">
-        <v>0.05584722159123625</v>
+        <v>0.06809253940846915</v>
       </c>
       <c r="Q2">
-        <v>1.789057977596657</v>
+        <v>3.958094760766667</v>
       </c>
       <c r="R2">
-        <v>1.789057977596657</v>
+        <v>35.6228528469</v>
       </c>
       <c r="S2">
-        <v>0.0005790878304234354</v>
+        <v>0.001132598554717983</v>
       </c>
       <c r="T2">
-        <v>0.0005790878304234354</v>
+        <v>0.001666222975606246</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.319169508462315</v>
+        <v>0.5869213333333333</v>
       </c>
       <c r="H3">
-        <v>0.319169508462315</v>
+        <v>1.760764</v>
       </c>
       <c r="I3">
-        <v>0.01036914306430435</v>
+        <v>0.01834079054277507</v>
       </c>
       <c r="J3">
-        <v>0.01036914306430435</v>
+        <v>0.02446997850397404</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>64.7764970017265</v>
+        <v>69.657865</v>
       </c>
       <c r="N3">
-        <v>64.7764970017265</v>
+        <v>208.973595</v>
       </c>
       <c r="O3">
-        <v>0.6453807539935337</v>
+        <v>0.6378547871531949</v>
       </c>
       <c r="P3">
-        <v>0.6453807539935337</v>
+        <v>0.7033368922862506</v>
       </c>
       <c r="Q3">
-        <v>20.67468270795167</v>
+        <v>40.88368700295333</v>
       </c>
       <c r="R3">
-        <v>20.67468270795167</v>
+        <v>367.95318302658</v>
       </c>
       <c r="S3">
-        <v>0.00669204536910756</v>
+        <v>0.01169876104788312</v>
       </c>
       <c r="T3">
-        <v>0.00669204536910756</v>
+        <v>0.01721063863529646</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.319169508462315</v>
+        <v>0.5869213333333333</v>
       </c>
       <c r="H4">
-        <v>0.319169508462315</v>
+        <v>1.760764</v>
       </c>
       <c r="I4">
-        <v>0.01036914306430435</v>
+        <v>0.01834079054277507</v>
       </c>
       <c r="J4">
-        <v>0.01036914306430435</v>
+        <v>0.02446997850397404</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.876596304595289</v>
+        <v>1.263827666666667</v>
       </c>
       <c r="N4">
-        <v>0.876596304595289</v>
+        <v>3.791483</v>
       </c>
       <c r="O4">
-        <v>0.008733698334946614</v>
+        <v>0.01157282852869501</v>
       </c>
       <c r="P4">
-        <v>0.008733698334946614</v>
+        <v>0.01276089388411081</v>
       </c>
       <c r="Q4">
-        <v>0.2797828116575602</v>
+        <v>0.7417674192235555</v>
       </c>
       <c r="R4">
-        <v>0.2797828116575602</v>
+        <v>6.675906773012</v>
       </c>
       <c r="S4">
-        <v>9.05609675155381E-05</v>
+        <v>0.0002122548240322469</v>
       </c>
       <c r="T4">
-        <v>9.05609675155381E-05</v>
+        <v>0.0003122587990356855</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.319169508462315</v>
+        <v>0.5869213333333333</v>
       </c>
       <c r="H5">
-        <v>0.319169508462315</v>
+        <v>1.760764</v>
       </c>
       <c r="I5">
-        <v>0.01036914306430435</v>
+        <v>0.01834079054277507</v>
       </c>
       <c r="J5">
-        <v>0.01036914306430435</v>
+        <v>0.02446997850397404</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.525766097696802</v>
+        <v>1.038909</v>
       </c>
       <c r="N5">
-        <v>0.525766097696802</v>
+        <v>3.116727</v>
       </c>
       <c r="O5">
-        <v>0.005238309205679277</v>
+        <v>0.009513255668495419</v>
       </c>
       <c r="P5">
-        <v>0.005238309205679277</v>
+        <v>0.01048988549144043</v>
       </c>
       <c r="Q5">
-        <v>0.1678085069680378</v>
+        <v>0.609757855492</v>
       </c>
       <c r="R5">
-        <v>0.1678085069680378</v>
+        <v>5.487820699428</v>
       </c>
       <c r="S5">
-        <v>5.43167775687509E-05</v>
+        <v>0.0001744806295957421</v>
       </c>
       <c r="T5">
-        <v>5.43167775687509E-05</v>
+        <v>0.0002566872724846966</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.319169508462315</v>
+        <v>0.5869213333333333</v>
       </c>
       <c r="H6">
-        <v>0.319169508462315</v>
+        <v>1.760764</v>
       </c>
       <c r="I6">
-        <v>0.01036914306430435</v>
+        <v>0.01834079054277507</v>
       </c>
       <c r="J6">
-        <v>0.01036914306430435</v>
+        <v>0.02446997850397404</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>28.5852147356633</v>
+        <v>30.502036</v>
       </c>
       <c r="N6">
-        <v>28.5852147356633</v>
+        <v>61.004072</v>
       </c>
       <c r="O6">
-        <v>0.2848000168746042</v>
+        <v>0.2793061441162328</v>
       </c>
       <c r="P6">
-        <v>0.2848000168746042</v>
+        <v>0.205319788929729</v>
       </c>
       <c r="Q6">
-        <v>9.123528936471379</v>
+        <v>17.90229563850133</v>
       </c>
       <c r="R6">
-        <v>9.123528936471379</v>
+        <v>107.413773831008</v>
       </c>
       <c r="S6">
-        <v>0.002953132119689063</v>
+        <v>0.005122695486545972</v>
       </c>
       <c r="T6">
-        <v>0.002953132119689063</v>
+        <v>0.005024170821550957</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.68705163946554</v>
+        <v>7.268947999999999</v>
       </c>
       <c r="H7">
-        <v>6.68705163946554</v>
+        <v>21.806844</v>
       </c>
       <c r="I7">
-        <v>0.2172481809495788</v>
+        <v>0.2271484186426865</v>
       </c>
       <c r="J7">
-        <v>0.2172481809495788</v>
+        <v>0.3030576522007011</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.60535367622028</v>
+        <v>6.743825</v>
       </c>
       <c r="N7">
-        <v>5.60535367622028</v>
+        <v>20.231475</v>
       </c>
       <c r="O7">
-        <v>0.05584722159123625</v>
+        <v>0.06175298453338176</v>
       </c>
       <c r="P7">
-        <v>0.05584722159123625</v>
+        <v>0.06809253940846915</v>
       </c>
       <c r="Q7">
-        <v>37.48328949035302</v>
+        <v>49.02051324609999</v>
       </c>
       <c r="R7">
-        <v>37.48328949035302</v>
+        <v>441.1846192149</v>
       </c>
       <c r="S7">
-        <v>0.01213270730178411</v>
+        <v>0.01402709278322394</v>
       </c>
       <c r="T7">
-        <v>0.01213270730178411</v>
+        <v>0.02063596512551438</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.68705163946554</v>
+        <v>7.268947999999999</v>
       </c>
       <c r="H8">
-        <v>6.68705163946554</v>
+        <v>21.806844</v>
       </c>
       <c r="I8">
-        <v>0.2172481809495788</v>
+        <v>0.2271484186426865</v>
       </c>
       <c r="J8">
-        <v>0.2172481809495788</v>
+        <v>0.3030576522007011</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>64.7764970017265</v>
+        <v>69.657865</v>
       </c>
       <c r="N8">
-        <v>64.7764970017265</v>
+        <v>208.973595</v>
       </c>
       <c r="O8">
-        <v>0.6453807539935337</v>
+        <v>0.6378547871531949</v>
       </c>
       <c r="P8">
-        <v>0.6453807539935337</v>
+        <v>0.7033368922862506</v>
       </c>
       <c r="Q8">
-        <v>433.1637804742298</v>
+        <v>506.3393984760199</v>
       </c>
       <c r="R8">
-        <v>433.1637804742298</v>
+        <v>4557.054586284179</v>
       </c>
       <c r="S8">
-        <v>0.1402077948249628</v>
+        <v>0.1448877062255156</v>
       </c>
       <c r="T8">
-        <v>0.1402077948249628</v>
+        <v>0.2131516272824085</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.68705163946554</v>
+        <v>7.268947999999999</v>
       </c>
       <c r="H9">
-        <v>6.68705163946554</v>
+        <v>21.806844</v>
       </c>
       <c r="I9">
-        <v>0.2172481809495788</v>
+        <v>0.2271484186426865</v>
       </c>
       <c r="J9">
-        <v>0.2172481809495788</v>
+        <v>0.3030576522007011</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.876596304595289</v>
+        <v>1.263827666666667</v>
       </c>
       <c r="N9">
-        <v>0.876596304595289</v>
+        <v>3.791483</v>
       </c>
       <c r="O9">
-        <v>0.008733698334946614</v>
+        <v>0.01157282852869501</v>
       </c>
       <c r="P9">
-        <v>0.008733698334946614</v>
+        <v>0.01276089388411081</v>
       </c>
       <c r="Q9">
-        <v>5.861844755793362</v>
+        <v>9.186697589961332</v>
       </c>
       <c r="R9">
-        <v>5.861844755793362</v>
+        <v>82.680278309652</v>
       </c>
       <c r="S9">
-        <v>0.001897380076229517</v>
+        <v>0.002628749699516039</v>
       </c>
       <c r="T9">
-        <v>0.001897380076229517</v>
+        <v>0.003867286540500909</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.68705163946554</v>
+        <v>7.268947999999999</v>
       </c>
       <c r="H10">
-        <v>6.68705163946554</v>
+        <v>21.806844</v>
       </c>
       <c r="I10">
-        <v>0.2172481809495788</v>
+        <v>0.2271484186426865</v>
       </c>
       <c r="J10">
-        <v>0.2172481809495788</v>
+        <v>0.3030576522007011</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.525766097696802</v>
+        <v>1.038909</v>
       </c>
       <c r="N10">
-        <v>0.525766097696802</v>
+        <v>3.116727</v>
       </c>
       <c r="O10">
-        <v>0.005238309205679277</v>
+        <v>0.009513255668495419</v>
       </c>
       <c r="P10">
-        <v>0.005238309205679277</v>
+        <v>0.01048988549144043</v>
       </c>
       <c r="Q10">
-        <v>3.5158250455788</v>
+        <v>7.551775497732</v>
       </c>
       <c r="R10">
-        <v>3.5158250455788</v>
+        <v>67.965979479588</v>
       </c>
       <c r="S10">
-        <v>0.001138013146185256</v>
+        <v>0.002160920981242308</v>
       </c>
       <c r="T10">
-        <v>0.001138013146185256</v>
+        <v>0.003179040068890135</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.68705163946554</v>
+        <v>7.268947999999999</v>
       </c>
       <c r="H11">
-        <v>6.68705163946554</v>
+        <v>21.806844</v>
       </c>
       <c r="I11">
-        <v>0.2172481809495788</v>
+        <v>0.2271484186426865</v>
       </c>
       <c r="J11">
-        <v>0.2172481809495788</v>
+        <v>0.3030576522007011</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>28.5852147356633</v>
+        <v>30.502036</v>
       </c>
       <c r="N11">
-        <v>28.5852147356633</v>
+        <v>61.004072</v>
       </c>
       <c r="O11">
-        <v>0.2848000168746042</v>
+        <v>0.2793061441162328</v>
       </c>
       <c r="P11">
-        <v>0.2848000168746042</v>
+        <v>0.205319788929729</v>
       </c>
       <c r="Q11">
-        <v>191.1508070625918</v>
+        <v>221.717713578128</v>
       </c>
       <c r="R11">
-        <v>191.1508070625918</v>
+        <v>1330.306281468768</v>
       </c>
       <c r="S11">
-        <v>0.06187228560041709</v>
+        <v>0.06344394895318857</v>
       </c>
       <c r="T11">
-        <v>0.06187228560041709</v>
+        <v>0.06222373318338717</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>23.7744814118673</v>
+        <v>0.070339</v>
       </c>
       <c r="H12">
-        <v>23.7744814118673</v>
+        <v>0.211017</v>
       </c>
       <c r="I12">
-        <v>0.7723826759861169</v>
+        <v>0.002198033693308568</v>
       </c>
       <c r="J12">
-        <v>0.7723826759861169</v>
+        <v>0.002932580092490016</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.60535367622028</v>
+        <v>6.743825</v>
       </c>
       <c r="N12">
-        <v>5.60535367622028</v>
+        <v>20.231475</v>
       </c>
       <c r="O12">
-        <v>0.05584722159123625</v>
+        <v>0.06175298453338176</v>
       </c>
       <c r="P12">
-        <v>0.05584722159123625</v>
+        <v>0.06809253940846915</v>
       </c>
       <c r="Q12">
-        <v>133.2643767822411</v>
+        <v>0.474353906675</v>
       </c>
       <c r="R12">
-        <v>133.2643767822411</v>
+        <v>4.269185160075</v>
       </c>
       <c r="S12">
-        <v>0.0431354264590287</v>
+        <v>0.000135735140666736</v>
       </c>
       <c r="T12">
-        <v>0.0431354264590287</v>
+        <v>0.0001996868255163685</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>23.7744814118673</v>
+        <v>0.070339</v>
       </c>
       <c r="H13">
-        <v>23.7744814118673</v>
+        <v>0.211017</v>
       </c>
       <c r="I13">
-        <v>0.7723826759861169</v>
+        <v>0.002198033693308568</v>
       </c>
       <c r="J13">
-        <v>0.7723826759861169</v>
+        <v>0.002932580092490016</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>64.7764970017265</v>
+        <v>69.657865</v>
       </c>
       <c r="N13">
-        <v>64.7764970017265</v>
+        <v>208.973595</v>
       </c>
       <c r="O13">
-        <v>0.6453807539935337</v>
+        <v>0.6378547871531949</v>
       </c>
       <c r="P13">
-        <v>0.6453807539935337</v>
+        <v>0.7033368922862506</v>
       </c>
       <c r="Q13">
-        <v>1540.027623893424</v>
+        <v>4.899664566235</v>
       </c>
       <c r="R13">
-        <v>1540.027623893424</v>
+        <v>44.096981096115</v>
       </c>
       <c r="S13">
-        <v>0.4984809137994633</v>
+        <v>0.001402026313600887</v>
       </c>
       <c r="T13">
-        <v>0.4984809137994633</v>
+        <v>0.002062591768632453</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>23.7744814118673</v>
+        <v>0.070339</v>
       </c>
       <c r="H14">
-        <v>23.7744814118673</v>
+        <v>0.211017</v>
       </c>
       <c r="I14">
-        <v>0.7723826759861169</v>
+        <v>0.002198033693308568</v>
       </c>
       <c r="J14">
-        <v>0.7723826759861169</v>
+        <v>0.002932580092490016</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.876596304595289</v>
+        <v>1.263827666666667</v>
       </c>
       <c r="N14">
-        <v>0.876596304595289</v>
+        <v>3.791483</v>
       </c>
       <c r="O14">
-        <v>0.008733698334946614</v>
+        <v>0.01157282852869501</v>
       </c>
       <c r="P14">
-        <v>0.008733698334946614</v>
+        <v>0.01276089388411081</v>
       </c>
       <c r="Q14">
-        <v>20.84062254931226</v>
+        <v>0.08889637424566665</v>
       </c>
       <c r="R14">
-        <v>20.84062254931226</v>
+        <v>0.800067368211</v>
       </c>
       <c r="S14">
-        <v>0.006745757291201558</v>
+        <v>2.543746703295425E-05</v>
       </c>
       <c r="T14">
-        <v>0.006745757291201558</v>
+        <v>3.742234336692097E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>23.7744814118673</v>
+        <v>0.070339</v>
       </c>
       <c r="H15">
-        <v>23.7744814118673</v>
+        <v>0.211017</v>
       </c>
       <c r="I15">
-        <v>0.7723826759861169</v>
+        <v>0.002198033693308568</v>
       </c>
       <c r="J15">
-        <v>0.7723826759861169</v>
+        <v>0.002932580092490016</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.525766097696802</v>
+        <v>1.038909</v>
       </c>
       <c r="N15">
-        <v>0.525766097696802</v>
+        <v>3.116727</v>
       </c>
       <c r="O15">
-        <v>0.005238309205679277</v>
+        <v>0.009513255668495419</v>
       </c>
       <c r="P15">
-        <v>0.005238309205679277</v>
+        <v>0.01048988549144043</v>
       </c>
       <c r="Q15">
-        <v>12.49981631668263</v>
+        <v>0.073075820151</v>
       </c>
       <c r="R15">
-        <v>12.49981631668263</v>
+        <v>0.657682381359</v>
       </c>
       <c r="S15">
-        <v>0.00404597928192527</v>
+        <v>2.091045649241165E-05</v>
       </c>
       <c r="T15">
-        <v>0.00404597928192527</v>
+        <v>3.076242936469806E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.070339</v>
+      </c>
+      <c r="H16">
+        <v>0.211017</v>
+      </c>
+      <c r="I16">
+        <v>0.002198033693308568</v>
+      </c>
+      <c r="J16">
+        <v>0.002932580092490016</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>30.502036</v>
+      </c>
+      <c r="N16">
+        <v>61.004072</v>
+      </c>
+      <c r="O16">
+        <v>0.2793061441162328</v>
+      </c>
+      <c r="P16">
+        <v>0.205319788929729</v>
+      </c>
+      <c r="Q16">
+        <v>2.145482710204</v>
+      </c>
+      <c r="R16">
+        <v>12.872896261224</v>
+      </c>
+      <c r="S16">
+        <v>0.0006139243155155781</v>
+      </c>
+      <c r="T16">
+        <v>0.0006021167256095752</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.028134</v>
+      </c>
+      <c r="H17">
+        <v>0.084402</v>
+      </c>
+      <c r="I17">
+        <v>0.0008791634786895356</v>
+      </c>
+      <c r="J17">
+        <v>0.001172965329648049</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>6.743825</v>
+      </c>
+      <c r="N17">
+        <v>20.231475</v>
+      </c>
+      <c r="O17">
+        <v>0.06175298453338176</v>
+      </c>
+      <c r="P17">
+        <v>0.06809253940846915</v>
+      </c>
+      <c r="Q17">
+        <v>0.18973077255</v>
+      </c>
+      <c r="R17">
+        <v>1.70757695295</v>
+      </c>
+      <c r="S17">
+        <v>5.429096870182899E-05</v>
+      </c>
+      <c r="T17">
+        <v>7.987018793382778E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.028134</v>
+      </c>
+      <c r="H18">
+        <v>0.084402</v>
+      </c>
+      <c r="I18">
+        <v>0.0008791634786895356</v>
+      </c>
+      <c r="J18">
+        <v>0.001172965329648049</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>69.657865</v>
+      </c>
+      <c r="N18">
+        <v>208.973595</v>
+      </c>
+      <c r="O18">
+        <v>0.6378547871531949</v>
+      </c>
+      <c r="P18">
+        <v>0.7033368922862506</v>
+      </c>
+      <c r="Q18">
+        <v>1.95975437391</v>
+      </c>
+      <c r="R18">
+        <v>17.63778936519</v>
+      </c>
+      <c r="S18">
+        <v>0.000560778633572376</v>
+      </c>
+      <c r="T18">
+        <v>0.0008249897897141763</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.028134</v>
+      </c>
+      <c r="H19">
+        <v>0.084402</v>
+      </c>
+      <c r="I19">
+        <v>0.0008791634786895356</v>
+      </c>
+      <c r="J19">
+        <v>0.001172965329648049</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.263827666666667</v>
+      </c>
+      <c r="N19">
+        <v>3.791483</v>
+      </c>
+      <c r="O19">
+        <v>0.01157282852869501</v>
+      </c>
+      <c r="P19">
+        <v>0.01276089388411081</v>
+      </c>
+      <c r="Q19">
+        <v>0.035556527574</v>
+      </c>
+      <c r="R19">
+        <v>0.320008748166</v>
+      </c>
+      <c r="S19">
+        <v>1.0174408187565E-05</v>
+      </c>
+      <c r="T19">
+        <v>1.496808610137981E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.028134</v>
+      </c>
+      <c r="H20">
+        <v>0.084402</v>
+      </c>
+      <c r="I20">
+        <v>0.0008791634786895356</v>
+      </c>
+      <c r="J20">
+        <v>0.001172965329648049</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.038909</v>
+      </c>
+      <c r="N20">
+        <v>3.116727</v>
+      </c>
+      <c r="O20">
+        <v>0.009513255668495419</v>
+      </c>
+      <c r="P20">
+        <v>0.01048988549144043</v>
+      </c>
+      <c r="Q20">
+        <v>0.029228665806</v>
+      </c>
+      <c r="R20">
+        <v>0.263057992254</v>
+      </c>
+      <c r="S20">
+        <v>8.363706947177375E-06</v>
+      </c>
+      <c r="T20">
+        <v>1.230427199343771E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.028134</v>
+      </c>
+      <c r="H21">
+        <v>0.084402</v>
+      </c>
+      <c r="I21">
+        <v>0.0008791634786895356</v>
+      </c>
+      <c r="J21">
+        <v>0.001172965329648049</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>30.502036</v>
+      </c>
+      <c r="N21">
+        <v>61.004072</v>
+      </c>
+      <c r="O21">
+        <v>0.2793061441162328</v>
+      </c>
+      <c r="P21">
+        <v>0.205319788929729</v>
+      </c>
+      <c r="Q21">
+        <v>0.8581442808240001</v>
+      </c>
+      <c r="R21">
+        <v>5.148865684944</v>
+      </c>
+      <c r="S21">
+        <v>0.0002455557612805879</v>
+      </c>
+      <c r="T21">
+        <v>0.0002408329939052274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>24.046532</v>
+      </c>
+      <c r="H22">
+        <v>48.093064</v>
+      </c>
+      <c r="I22">
+        <v>0.7514335936425405</v>
+      </c>
+      <c r="J22">
+        <v>0.6683668238731867</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>6.743825</v>
+      </c>
+      <c r="N22">
+        <v>20.231475</v>
+      </c>
+      <c r="O22">
+        <v>0.06175298453338176</v>
+      </c>
+      <c r="P22">
+        <v>0.06809253940846915</v>
+      </c>
+      <c r="Q22">
+        <v>162.1656036649</v>
+      </c>
+      <c r="R22">
+        <v>972.9936219893999</v>
+      </c>
+      <c r="S22">
+        <v>0.04640326708607127</v>
+      </c>
+      <c r="T22">
+        <v>0.04551079429389833</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>24.046532</v>
+      </c>
+      <c r="H23">
+        <v>48.093064</v>
+      </c>
+      <c r="I23">
+        <v>0.7514335936425405</v>
+      </c>
+      <c r="J23">
+        <v>0.6683668238731867</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>69.657865</v>
+      </c>
+      <c r="N23">
+        <v>208.973595</v>
+      </c>
+      <c r="O23">
+        <v>0.6378547871531949</v>
+      </c>
+      <c r="P23">
+        <v>0.7033368922862506</v>
+      </c>
+      <c r="Q23">
+        <v>1675.03007977418</v>
+      </c>
+      <c r="R23">
+        <v>10050.18047864508</v>
+      </c>
+      <c r="S23">
+        <v>0.479305514932623</v>
+      </c>
+      <c r="T23">
+        <v>0.470087044810199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>23.7744814118673</v>
-      </c>
-      <c r="H16">
-        <v>23.7744814118673</v>
-      </c>
-      <c r="I16">
-        <v>0.7723826759861169</v>
-      </c>
-      <c r="J16">
-        <v>0.7723826759861169</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>28.5852147356633</v>
-      </c>
-      <c r="N16">
-        <v>28.5852147356633</v>
-      </c>
-      <c r="O16">
-        <v>0.2848000168746042</v>
-      </c>
-      <c r="P16">
-        <v>0.2848000168746042</v>
-      </c>
-      <c r="Q16">
-        <v>679.5986563872623</v>
-      </c>
-      <c r="R16">
-        <v>679.5986563872623</v>
-      </c>
-      <c r="S16">
-        <v>0.219974599154498</v>
-      </c>
-      <c r="T16">
-        <v>0.219974599154498</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>24.046532</v>
+      </c>
+      <c r="H24">
+        <v>48.093064</v>
+      </c>
+      <c r="I24">
+        <v>0.7514335936425405</v>
+      </c>
+      <c r="J24">
+        <v>0.6683668238731867</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.263827666666667</v>
+      </c>
+      <c r="N24">
+        <v>3.791483</v>
+      </c>
+      <c r="O24">
+        <v>0.01157282852869501</v>
+      </c>
+      <c r="P24">
+        <v>0.01276089388411081</v>
+      </c>
+      <c r="Q24">
+        <v>30.39067242898533</v>
+      </c>
+      <c r="R24">
+        <v>182.344034573912</v>
+      </c>
+      <c r="S24">
+        <v>0.008696212129926204</v>
+      </c>
+      <c r="T24">
+        <v>0.008528958115105918</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>24.046532</v>
+      </c>
+      <c r="H25">
+        <v>48.093064</v>
+      </c>
+      <c r="I25">
+        <v>0.7514335936425405</v>
+      </c>
+      <c r="J25">
+        <v>0.6683668238731867</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.038909</v>
+      </c>
+      <c r="N25">
+        <v>3.116727</v>
+      </c>
+      <c r="O25">
+        <v>0.009513255668495419</v>
+      </c>
+      <c r="P25">
+        <v>0.01048988549144043</v>
+      </c>
+      <c r="Q25">
+        <v>24.982158513588</v>
+      </c>
+      <c r="R25">
+        <v>149.892951081528</v>
+      </c>
+      <c r="S25">
+        <v>0.007148579894217781</v>
+      </c>
+      <c r="T25">
+        <v>0.007011091448707464</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>24.046532</v>
+      </c>
+      <c r="H26">
+        <v>48.093064</v>
+      </c>
+      <c r="I26">
+        <v>0.7514335936425405</v>
+      </c>
+      <c r="J26">
+        <v>0.6683668238731867</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>30.502036</v>
+      </c>
+      <c r="N26">
+        <v>61.004072</v>
+      </c>
+      <c r="O26">
+        <v>0.2793061441162328</v>
+      </c>
+      <c r="P26">
+        <v>0.205319788929729</v>
+      </c>
+      <c r="Q26">
+        <v>733.468184739152</v>
+      </c>
+      <c r="R26">
+        <v>2933.872738956608</v>
+      </c>
+      <c r="S26">
+        <v>0.2098800195997021</v>
+      </c>
+      <c r="T26">
+        <v>0.1372289352052761</v>
       </c>
     </row>
   </sheetData>
